--- a/biology/Botanique/Dolcetto_d'Asti/Dolcetto_d'Asti.xlsx
+++ b/biology/Botanique/Dolcetto_d'Asti/Dolcetto_d'Asti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Asti</t>
+          <t>Dolcetto_d'Asti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Dolcetto d'Asti est un vin rouge italien de la région Piémont doté d'une appellation DOC depuis le 10 juin 1974. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Asti</t>
+          <t>Dolcetto_d'Asti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province d'Asti dans les communes Bubbio, Cassinasco, Castel Boglione, Castelletto Molina, Castel Rocchero, Cessole, Fontanile, Loazzolo, Maranzana, Mombaldone, Mombaruzzo, Monastero Bormida, Montabone, Olmo Gentile, Quaranti, Serole, Sessame, Vesime, Rocchetta Palafea,San Giorgio Scarampi, ainsi que les vignobles situés rive droite du Belbo dans les communes de Calamandrana, Nizza et Canelli.
 Les vignobles se situent sur des pentes de nombreuses collines. La superficie plantée en vignes est de 199 hectares.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Asti</t>
+          <t>Dolcetto_d'Asti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis vif
 odeur : vineux, agréablement caractéristique
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Asti</t>
+          <t>Dolcetto_d'Asti</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Asti</t>
+          <t>Dolcetto_d'Asti</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Association de plats conseillée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Hors-d’œuvre divers, agnolottis, des risottos et tagliatelles aux champignons, escalopes de veau.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Asti</t>
+          <t>Dolcetto_d'Asti</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
  pas de données disponible 
